--- a/Whole_Catchment/morphology/data/3-sourses_whole_catchment_data.xlsx
+++ b/Whole_Catchment/morphology/data/3-sourses_whole_catchment_data.xlsx
@@ -761,7 +761,7 @@
   <dimension ref="A1:AW121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D71" sqref="D71:D76"/>
